--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value13.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value13.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.50341267871095</v>
+        <v>4.661166191101074</v>
       </c>
       <c r="B1">
-        <v>1.994328362451504</v>
+        <v>6.496612071990967</v>
       </c>
       <c r="C1">
-        <v>2.040867833974825</v>
+        <v>5.432275772094727</v>
       </c>
       <c r="D1">
-        <v>2.364159000841449</v>
+        <v>6.476631164550781</v>
       </c>
       <c r="E1">
-        <v>0.7245518070972425</v>
+        <v>3.97675609588623</v>
       </c>
     </row>
   </sheetData>
